--- a/Term20163_schedule.xlsx
+++ b/Term20163_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchen\Desktop\USC MSBAN\Spring 2018\DSO 570\DSO 570 Final Project - Scheduling Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD1F529-C85F-4167-9349-AA66DCEAEBAB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D216280-C5EF-42A6-A204-12A823316478}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRI202A" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <sheet name="JFF LL103" sheetId="41" r:id="rId41"/>
     <sheet name="JFF LL101" sheetId="42" r:id="rId42"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -720,11 +720,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1650,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1994,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2392,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2616,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2960,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3184,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3456,7 +3460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3722,7 +3726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3916,7 +3920,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3952,16 +4202,34 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3987,25 +4255,16 @@
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -4027,127 +4286,91 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -4157,11 +4380,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4197,49 +4420,49 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4280,92 +4503,86 @@
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -4375,11 +4592,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4430,34 +4647,16 @@
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -4493,16 +4692,22 @@
       <c r="A15" s="2">
         <v>0.60416666666666663</v>
       </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4510,36 +4715,48 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,11 +4804,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4622,21 +4839,45 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -4687,111 +4928,123 @@
       <c r="A15" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4799,11 +5052,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4834,45 +5087,21 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -4929,117 +5158,93 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5047,11 +5252,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5082,41 +5287,113 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -5137,84 +5414,108 @@
       <c r="A13" s="2">
         <v>0.5625</v>
       </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.58333333333333337</v>
       </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.60416666666666663</v>
       </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5247,11 +5548,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5543,11 +5844,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5593,13 +5894,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5610,13 +5911,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,64 +5928,52 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -5705,133 +5994,97 @@
       <c r="A13" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5839,11 +6092,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5874,62 +6127,41 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,22 +6169,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -5969,6 +6195,12 @@
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -6029,11 +6261,23 @@
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -6077,9 +6321,6 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6087,11 +6328,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6127,48 +6368,21 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -6179,23 +6393,11 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -6221,99 +6423,126 @@
       <c r="A14" s="2">
         <v>0.58333333333333337</v>
       </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.60416666666666663</v>
       </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -6323,11 +6552,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6363,16 +6594,34 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -6419,10 +6668,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6430,10 +6679,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6441,10 +6690,10 @@
         <v>0.625</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6452,21 +6701,33 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -6487,54 +6748,84 @@
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6547,11 +6838,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6587,34 +6878,16 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -6630,21 +6903,45 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.52083333333333337</v>
       </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -6660,170 +6957,92 @@
       <c r="A14" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.625</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6831,11 +7050,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6896,45 +7115,21 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -7005,13 +7200,13 @@
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7043,11 +7238,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7149,81 +7344,93 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -7231,11 +7438,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7337,91 +7544,85 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -7431,11 +7632,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7537,85 +7738,91 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -7625,11 +7832,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7665,16 +7872,34 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -7690,16 +7915,34 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -7750,54 +7993,48 @@
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7825,11 +8062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7860,17 +8097,14 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -7890,52 +8124,64 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
       <c r="D5" t="s">
         <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -7967,85 +8213,76 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -8055,11 +8292,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8098,83 +8335,62 @@
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -8225,21 +8441,45 @@
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -8255,17 +8495,11 @@
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -8278,6 +8512,9 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8285,11 +8522,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8320,17 +8557,11 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -8356,34 +8587,16 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -8415,99 +8628,93 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8515,11 +8722,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8621,91 +8828,91 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -8715,11 +8922,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8750,21 +8957,45 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -8780,21 +9011,45 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.52083333333333337</v>
       </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -8825,31 +9080,67 @@
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -8860,44 +9151,20 @@
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8915,11 +9182,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8950,45 +9217,21 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -9004,45 +9247,21 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.5</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -9069,103 +9288,91 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -9175,11 +9382,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9281,91 +9488,91 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -9375,11 +9582,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9481,91 +9688,85 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
       </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.89583333333333337</v>
       </c>
@@ -9575,11 +9776,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9690,21 +10218,45 @@
       <c r="A18" s="2">
         <v>0.66666666666666663</v>
       </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.6875</v>
       </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.70833333333333337</v>
       </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.72916666666666663</v>
       </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -9715,48 +10267,48 @@
       <c r="A23" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.83333333333333337</v>
       </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.85416666666666663</v>
       </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.875</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9769,11 +10321,668 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9804,1190 +11013,6 @@
       <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.33333333333333331</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
